--- a/rnaSample/rnaSample_314.xlsx
+++ b/rnaSample/rnaSample_314.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -65,8 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -149,13 +150,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -178,7 +183,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -187,7 +192,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,6 +244,9 @@
       <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -261,6 +270,9 @@
       <c r="G3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -284,6 +296,9 @@
       <c r="G4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -307,6 +322,9 @@
       <c r="G5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -330,6 +348,9 @@
       <c r="G6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -353,6 +374,9 @@
       <c r="G7" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -376,6 +400,9 @@
       <c r="G8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -399,6 +426,9 @@
       <c r="G9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -422,6 +452,9 @@
       <c r="G10" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -445,6 +478,9 @@
       <c r="G11" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H11" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -468,6 +504,9 @@
       <c r="G12" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -491,6 +530,9 @@
       <c r="G13" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -514,6 +556,9 @@
       <c r="G14" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -537,6 +582,9 @@
       <c r="G15" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -560,6 +608,9 @@
       <c r="G16" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -583,6 +634,9 @@
       <c r="G17" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H17" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -606,6 +660,9 @@
       <c r="G18" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H18" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -629,6 +686,9 @@
       <c r="G19" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H19" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -652,6 +712,9 @@
       <c r="G20" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H20" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -675,6 +738,9 @@
       <c r="G21" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H21" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -698,6 +764,9 @@
       <c r="G22" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H22" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -721,6 +790,9 @@
       <c r="G23" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H23" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -744,6 +816,9 @@
       <c r="G24" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="H24" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -766,6 +841,9 @@
       </c>
       <c r="G25" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
